--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1559258.898737446</v>
+        <v>1665332.496890289</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10402249.08566168</v>
+        <v>10417401.00078941</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>363.8357686340199</v>
+        <v>280.6849349264019</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8593120353581</v>
+        <v>20.22567531558063</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>159.2458959399329</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>168.885688704624</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>90.52240030468822</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>108.1644398795909</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>138.1665993380046</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>65.53378126910303</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>113.5103646250813</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,10 +1347,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>37.04816057030133</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1528,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>214.2890123109847</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>212.4076860934774</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>135.3135037226517</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.70843787977349</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.930370072263</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>125.2700607443052</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>192.7891334611256</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>32.57570591153918</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,19 +2295,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>245.879692121444</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>172.0260335000794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8253826161918028</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3202,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428257</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>116.4636264596498</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>71.60395572454195</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3563,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>41.74133133758804</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>26.13627195705918</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>72.26558381700015</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.0260335000794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883008</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539437</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>2741.012457539437</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X2" t="n">
-        <v>2373.501580131336</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="Y2" t="n">
-        <v>2373.501580131336</v>
+        <v>1926.050536840746</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>168.00081891452</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>798.5065461617548</v>
+        <v>1612.092375508018</v>
       </c>
       <c r="C4" t="n">
-        <v>629.570363233848</v>
+        <v>1443.156192580112</v>
       </c>
       <c r="D4" t="n">
-        <v>479.4537238215122</v>
+        <v>1293.039553167776</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>1145.126459585383</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>1145.126459585383</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>2365.710580560017</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>2142.732099754752</v>
       </c>
       <c r="U4" t="n">
-        <v>1490.364760172485</v>
+        <v>2122.302124688509</v>
       </c>
       <c r="V4" t="n">
-        <v>1490.364760172485</v>
+        <v>2122.302124688509</v>
       </c>
       <c r="W4" t="n">
-        <v>1200.947590135525</v>
+        <v>1832.884954651548</v>
       </c>
       <c r="X4" t="n">
-        <v>1200.947590135525</v>
+        <v>1832.884954651548</v>
       </c>
       <c r="Y4" t="n">
-        <v>980.1550109919946</v>
+        <v>1612.092375508018</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796265</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="C5" t="n">
-        <v>921.7704558796265</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="D5" t="n">
-        <v>921.7704558796265</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E5" t="n">
-        <v>535.9822032813822</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2391.74772364801</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2060.684836304439</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>1707.916181034325</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>1334.450422773245</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>944.3110907974335</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1015.34761180106</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="C7" t="n">
-        <v>846.4114288731531</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="D7" t="n">
-        <v>696.2947894608174</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="E7" t="n">
-        <v>548.3816958784242</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F7" t="n">
-        <v>401.4917483805139</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1004.998474965291</v>
       </c>
       <c r="V7" t="n">
-        <v>1645.778206672847</v>
+        <v>1004.998474965291</v>
       </c>
       <c r="W7" t="n">
-        <v>1645.778206672847</v>
+        <v>715.5813049283305</v>
       </c>
       <c r="X7" t="n">
-        <v>1417.78865577483</v>
+        <v>715.5813049283305</v>
       </c>
       <c r="Y7" t="n">
-        <v>1196.9960766313</v>
+        <v>494.7887257848004</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1572.164517693149</v>
+        <v>2098.941407629261</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1729.978890688849</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1371.713192082098</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3053.432335337733</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2722.369447994162</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2722.369447994162</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X8" t="n">
-        <v>2348.903689733083</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y8" t="n">
-        <v>1958.764357757271</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>648.3899067494191</v>
+        <v>181.169050396912</v>
       </c>
       <c r="C10" t="n">
-        <v>479.4537238215122</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>479.4537238215122</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4993,19 +4995,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1386.589206827927</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1386.589206827927</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1097.172036790967</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>869.1824858929492</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>648.3899067494191</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021788</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756786</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996073</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5221,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2230.509535791388</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1941.434309135586</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1686.749820929699</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1397.332650892738</v>
       </c>
       <c r="X13" t="n">
-        <v>929.7309773356195</v>
+        <v>1169.343099994721</v>
       </c>
       <c r="Y13" t="n">
-        <v>929.7309773356195</v>
+        <v>948.5505208511905</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,64 +5266,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756267</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756267</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021788</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998295</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000583</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756267</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913855</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417938</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972545</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211832</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>789.7592298206044</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C19" t="n">
-        <v>620.8230468926976</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803618</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979687</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>1132.402531511373</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.294644713842</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,46 +5746,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872154</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1977.461080510509</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913855</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>738.7889117913855</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6209,52 +6211,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468473</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403286</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400721</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121652</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121652</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121652</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.294644713842</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703119</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468473</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969299</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876697</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597628</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474271</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235166</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258107</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602305</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396418</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359457</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614396</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179095</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6774,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516145</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6929,37 +6931,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468473</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832664</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176862</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803938</v>
+        <v>315.9123021921471</v>
       </c>
       <c r="M39" t="n">
-        <v>842.6091804069459</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876697</v>
+        <v>983.3556038098246</v>
       </c>
       <c r="C40" t="n">
-        <v>580.8993044876697</v>
+        <v>814.4194208819177</v>
       </c>
       <c r="D40" t="n">
-        <v>430.782665075334</v>
+        <v>664.302781469582</v>
       </c>
       <c r="E40" t="n">
-        <v>282.8695714929408</v>
+        <v>516.3896878871889</v>
       </c>
       <c r="F40" t="n">
-        <v>135.9796239950305</v>
+        <v>369.4997403892785</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>202.3036411041584</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7357,25 +7359,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235166</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258107</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602305</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396418</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359457</v>
+        <v>1613.786198681612</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614396</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179095</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694708</v>
@@ -7433,25 +7435,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L42" t="n">
-        <v>506.2737913123329</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938885</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1089.575996120531</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>920.6398131926242</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>770.5231737802884</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>622.6100801978953</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>475.7201326999849</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>308.5240334148648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>166.8122022570629</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7576,7 +7578,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7585,34 +7587,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235166</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235166</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>2264.108249235166</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>2009.423761029279</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1720.006590992318</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1492.017040094301</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1271.224460950771</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,52 +7645,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468473</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969299</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969299</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7813,7 +7815,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570818</v>
@@ -7822,34 +7824,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.963083580261</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>54.95314511566525</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23416,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>3.116438016303533</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>13.30196929555976</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>31.93331737597609</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7255247667957</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.56191943763214</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>32.92052192791152</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24181,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>40.64330621514705</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891647</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24455,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>145.6085800303774</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>63.36835372228748</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>180.5336875992861</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>123.7828069546808</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>114.1584408891647</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>9.000252501565356</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891647</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>911075.218395872</v>
+        <v>918799.7241472641</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>911075.218395872</v>
+        <v>918799.7241472641</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>895790.5312041669</v>
+        <v>895790.5312041671</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>895790.5312041669</v>
+        <v>895790.5312041671</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.150411784</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="F2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="G2" t="n">
         <v>524645.2897985041</v>
-      </c>
-      <c r="F2" t="n">
-        <v>524645.2897985041</v>
-      </c>
-      <c r="G2" t="n">
-        <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
         <v>524645.2897985041</v>
@@ -26344,13 +26346,13 @@
         <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="N2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
         <v>524645.2897985039</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551201</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.139184627798386e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87914.29116309555</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>87914.29116309556</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309556</v>
+        <v>87914.29116309554</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744284</v>
@@ -26433,31 +26435,31 @@
         <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="K4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="I4" t="n">
-        <v>8727.256391744244</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8727.256391744244</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744228</v>
-      </c>
       <c r="L4" t="n">
-        <v>8727.256391744228</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="N4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.256391744228</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744286</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,43 +26521,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-990915.8270402972</v>
+        <v>-809534.5425809638</v>
       </c>
       <c r="C6" t="n">
-        <v>337828.9186872954</v>
+        <v>305217.2409949567</v>
       </c>
       <c r="D6" t="n">
-        <v>337828.9186872954</v>
+        <v>145201.7782469573</v>
       </c>
       <c r="E6" t="n">
-        <v>89383.04177549697</v>
+        <v>89383.04177549692</v>
       </c>
       <c r="F6" t="n">
+        <v>414795.5035828529</v>
+      </c>
+      <c r="G6" t="n">
         <v>414795.5035828527</v>
-      </c>
-      <c r="G6" t="n">
-        <v>414795.5035828525</v>
       </c>
       <c r="H6" t="n">
         <v>414795.5035828524</v>
       </c>
       <c r="I6" t="n">
-        <v>414795.5035828526</v>
+        <v>414795.5035828524</v>
       </c>
       <c r="J6" t="n">
-        <v>197264.3011855751</v>
+        <v>247190.3257728699</v>
       </c>
       <c r="K6" t="n">
         <v>414795.5035828527</v>
       </c>
       <c r="L6" t="n">
-        <v>414795.5035828526</v>
+        <v>366501.5335746618</v>
       </c>
       <c r="M6" t="n">
-        <v>329740.4756473405</v>
+        <v>329740.4756473406</v>
       </c>
       <c r="N6" t="n">
-        <v>414795.5035828526</v>
+        <v>414795.5035828522</v>
       </c>
       <c r="O6" t="n">
         <v>414795.5035828525</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="O4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483759</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>5.895332044449162</v>
+        <v>89.04616575206711</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>132.3525261702548</v>
+        <v>266.00147880562</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>247.6301498017785</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>82.159561423838</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>75.50340795434001</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,19 +27827,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>178.0627142416097</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>243.7637707342572</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>185.4613906897989</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>53.73645647354655</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,10 +28067,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>249.1636776353116</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31847,7 +31849,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>620.1193660647489</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071787</v>
@@ -31856,7 +31858,7 @@
         <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>436.4492970000066</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>602.8420149078231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P18" t="n">
-        <v>171.7382405950807</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>302.3396059822662</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,16 +32575,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>742.9354859824761</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>339.3493584601583</v>
+        <v>637.8521160493917</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33047,16 +33049,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>282.8216163968492</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>626.4629682828344</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>302.5540177178157</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>400.8433522134843</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,13 +33979,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>211.7351844430261</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>601.0567753070482</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437245</v>
@@ -33992,7 +33994,7 @@
         <v>561.87657862147</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34120,40 +34122,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34162,7 +34164,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,28 +34207,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>555.1777416630672</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
         <v>375.5996128485291</v>
@@ -34235,7 +34237,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34302,7 +34304,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,40 +34359,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34399,7 +34401,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,37 +34444,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>279.2419622547051</v>
+        <v>637.8521160493917</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34515,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34539,7 +34541,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
@@ -34551,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>117.9333660065827</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35495,7 +35497,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>477.9853321427306</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238455</v>
@@ -35504,7 +35506,7 @@
         <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>302.4748895856764</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>471.5003028244898</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P18" t="n">
-        <v>37.76383318075048</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>163.785226202392</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>611.5937738991428</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>200.7949786802841</v>
+        <v>499.2977362695175</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902929</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>140.6875824748309</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902929</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>483.8667238383899</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>171.2123056344824</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>266.868944799154</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37546,7 +37548,7 @@
         <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146267</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902951</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754089</v>
@@ -37625,13 +37627,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>73.18080466315196</v>
       </c>
       <c r="M39" t="n">
         <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>469.7150632237149</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992801</v>
@@ -37640,7 +37642,7 @@
         <v>427.9021712071398</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789216</v>
@@ -37774,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>416.623361883193</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37947,7 +37949,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>140.6875824748309</v>
+        <v>499.2977362695175</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
@@ -38184,7 +38186,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060455</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1665332.496890289</v>
+        <v>1661236.855385524</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>374.0848555565614</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -679,7 +679,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>280.6849349264019</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>79.41653965146601</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>20.22567531558063</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>176.9012619117154</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>168.885688704624</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>110.6796476850514</v>
       </c>
       <c r="U7" t="n">
-        <v>108.1644398795909</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>138.1665993380046</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1186,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>63.25786276724418</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,19 +1293,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>113.5103646250813</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>33.82891891787488</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>214.2890123109847</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1666,10 +1666,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>135.3135037226517</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>127.9967681169583</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>192.7891334611256</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>32.57570591153918</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>39.99000985192024</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>188.7692896015406</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>135.5795121770519</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>115.4764219077142</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>32.47207866589218</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>116.4636264596498</v>
+        <v>124.6209519256077</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634792</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>26.13627195705918</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1926.050536840746</v>
+        <v>1215.247820471429</v>
       </c>
       <c r="C2" t="n">
-        <v>1926.050536840746</v>
+        <v>1215.247820471429</v>
       </c>
       <c r="D2" t="n">
-        <v>1567.784838233996</v>
+        <v>1215.247820471429</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>1215.247820471429</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>2209.570673130041</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X2" t="n">
-        <v>1926.050536840746</v>
+        <v>1601.84766053555</v>
       </c>
       <c r="Y2" t="n">
-        <v>1926.050536840746</v>
+        <v>1601.84766053555</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>168.00081891452</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380228</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694945</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2102.578639884741</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2349.761373717038</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1612.092375508018</v>
+        <v>131.4655134886758</v>
       </c>
       <c r="C4" t="n">
-        <v>1443.156192580112</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>1293.039553167776</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>1145.126459585383</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>1145.126459585383</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2365.710580560017</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2142.732099754752</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U4" t="n">
-        <v>2122.302124688509</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V4" t="n">
-        <v>2122.302124688509</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W4" t="n">
-        <v>1832.884954651548</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="X4" t="n">
-        <v>1832.884954651548</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="Y4" t="n">
-        <v>1612.092375508018</v>
+        <v>131.4655134886758</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>944.3110907974335</v>
+        <v>1076.257000807301</v>
       </c>
       <c r="C5" t="n">
-        <v>944.3110907974335</v>
+        <v>707.2944838668893</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974335</v>
+        <v>707.2944838668893</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>707.2944838668893</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>296.3085790772818</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4567,13 +4567,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2391.74772364801</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2060.684836304439</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>1707.916181034325</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="X5" t="n">
-        <v>1334.450422773245</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="Y5" t="n">
-        <v>944.3110907974335</v>
+        <v>1462.856840871423</v>
       </c>
     </row>
     <row r="6">
@@ -4649,10 +4649,10 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429755</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744472</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
         <v>1165.206974733667</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>494.7887257848004</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>494.7887257848004</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>494.7887257848004</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>346.8756322024072</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800311</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1524.648496150203</v>
       </c>
       <c r="U7" t="n">
-        <v>1004.998474965291</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="V7" t="n">
-        <v>1004.998474965291</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="W7" t="n">
-        <v>715.5813049283305</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="X7" t="n">
-        <v>715.5813049283305</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>494.7887257848004</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2098.941407629261</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C8" t="n">
-        <v>1729.978890688849</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1371.713192082098</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866152</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.080739605072</v>
+        <v>2008.078555102614</v>
       </c>
       <c r="Y8" t="n">
-        <v>2098.941407629261</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.169050396912</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>362.8175152271517</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,13 +5029,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5044,49 +5044,49 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969299</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511905</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232836</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>127.9872882175424</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>127.9872882175424</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2230.509535791388</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1941.434309135586</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1686.749820929699</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1397.332650892738</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1169.343099994721</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>948.5505208511905</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5278,19 +5278,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.2946447138411</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232838</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5530,37 +5530,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5606,16 +5606,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811333</v>
+        <v>634.4644740681601</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532264</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2317.673418815656</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2098.071953838597</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1808.996727182795</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1554.312238976908</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1264.895068939947</v>
       </c>
       <c r="X19" t="n">
-        <v>1132.402531511373</v>
+        <v>1036.90551804193</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.402531511373</v>
+        <v>816.1129388983999</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>962.6357307816187</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>652.8121879835377</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>504.8990944011446</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>358.0091469032342</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.284195611858</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D25" t="n">
-        <v>317.6151975578602</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,22 +6223,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6308,25 +6308,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2242.968377633621</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2023.366912656562</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="29">
@@ -6454,16 +6454,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6554,16 +6554,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558405</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C31" t="n">
-        <v>2588.787486630498</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D31" t="n">
-        <v>2588.787486630498</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E31" t="n">
-        <v>2588.787486630498</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F31" t="n">
-        <v>2588.787486630498</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>210.4595134598044</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388645</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6703,7 +6703,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6785,22 +6785,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>577.8620388433919</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C37" t="n">
-        <v>408.925855915485</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D37" t="n">
-        <v>408.925855915485</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7165,61 +7165,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="39">
@@ -7238,43 +7238,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898186992</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098246</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819177</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>664.302781469582</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>516.3896878871889</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>369.4997403892785</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>202.3036411041584</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.963083580261</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924459</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718572</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681612</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783594</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640064</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7399,28 +7399,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7429,10 +7429,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,25 +7639,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7666,10 +7666,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>54.95314511566525</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>98.2444844197689</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,13 +8297,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>211.0329012241559</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -10840,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>106.465793928349</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>3.116438016303533</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>31.93331737597609</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>53.02951788468627</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>32.92052192791152</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>134.6711151870886</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>125.5341284403486</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>63.36835372228742</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>45.44677382459273</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>147.3599015160451</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>63.36835372228748</v>
+        <v>55.2110282563296</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>114.1584408891647</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>895790.5312041669</v>
+        <v>895790.5312041671</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>895790.5312041669</v>
+        <v>895790.5312041671</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>895790.5312041669</v>
+        <v>895790.5312041671</v>
       </c>
     </row>
     <row r="14">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117843</v>
@@ -26322,34 +26322,34 @@
         <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="F2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="H2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="I2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="G2" t="n">
-        <v>524645.2897985041</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="K2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.2897985041</v>
-      </c>
-      <c r="L2" t="n">
-        <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
         <v>524645.2897985039</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
-        <v>3.139184627798386e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309554</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
@@ -26444,7 +26444,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
@@ -26453,13 +26453,13 @@
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744309</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744286</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-809534.5425809638</v>
+        <v>-809534.5425809633</v>
       </c>
       <c r="C6" t="n">
-        <v>305217.2409949567</v>
+        <v>305217.2409949565</v>
       </c>
       <c r="D6" t="n">
         <v>145201.7782469573</v>
       </c>
       <c r="E6" t="n">
-        <v>89383.04177549692</v>
+        <v>89035.66252114068</v>
       </c>
       <c r="F6" t="n">
-        <v>414795.5035828529</v>
+        <v>414448.1243284955</v>
       </c>
       <c r="G6" t="n">
-        <v>414795.5035828527</v>
+        <v>414448.1243284955</v>
       </c>
       <c r="H6" t="n">
-        <v>414795.5035828524</v>
+        <v>414448.1243284954</v>
       </c>
       <c r="I6" t="n">
-        <v>414795.5035828524</v>
+        <v>414448.1243284956</v>
       </c>
       <c r="J6" t="n">
-        <v>247190.3257728699</v>
+        <v>246842.9465185131</v>
       </c>
       <c r="K6" t="n">
-        <v>414795.5035828527</v>
+        <v>414448.1243284955</v>
       </c>
       <c r="L6" t="n">
-        <v>366501.5335746618</v>
+        <v>366154.1543203047</v>
       </c>
       <c r="M6" t="n">
-        <v>329740.4756473406</v>
+        <v>329393.0963929837</v>
       </c>
       <c r="N6" t="n">
-        <v>414795.5035828522</v>
+        <v>414448.1243284955</v>
       </c>
       <c r="O6" t="n">
-        <v>414795.5035828525</v>
+        <v>414448.1243284954</v>
       </c>
       <c r="P6" t="n">
-        <v>414795.5035828524</v>
+        <v>414448.1243284955</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26795,10 +26795,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,16 +27041,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>32.79119018515007</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>89.04616575206711</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>87.83028144716182</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27587,22 +27587,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>266.00147880562</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>234.6464408612386</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>82.159561423838</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>110.0690483121605</v>
       </c>
       <c r="U7" t="n">
-        <v>178.0627142416097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,13 +27855,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>243.7637707342572</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>306.4732379112248</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,19 +28013,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>53.73645647354655</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647489</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,7 +32101,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32718,7 +32718,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159425</v>
@@ -33028,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33423,7 +33423,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33505,25 +33505,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33669,7 +33669,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460027</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>400.8433522134843</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>211.7351844430261</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>117.9333660065827</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>214.7252067506235</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>397.6203974676407</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>577.9642335061964</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427306</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36676,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>266.868944799154</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683797</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>73.18080466315196</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1661236.855385524</v>
+        <v>1662997.385688309</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>228.8485779884291</v>
       </c>
       <c r="F2" t="n">
-        <v>374.0848555565614</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -679,7 +679,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>79.41653965146601</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>137.6441564454822</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>176.9012619117154</v>
+        <v>327.0871832182397</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>110.6796476850514</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>92.72329049755739</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>63.25786276724418</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991711</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>33.82891891787488</v>
+        <v>4.019807611472036</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1666,13 +1666,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1779,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>55.5207962406042</v>
+        <v>135.5334195528344</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>127.9967681169583</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>164.8224308749194</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>39.99000985192024</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>188.7692896015406</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>135.5795121770519</v>
+        <v>172.3645574474252</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2958,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>40.15381658332819</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>115.4764219077142</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32.47207866589218</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>124.6209519256077</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>151.8555862333575</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634792</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T40" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>133.3722917337063</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1215.247820471429</v>
+        <v>1479.530414586155</v>
       </c>
       <c r="C2" t="n">
-        <v>1215.247820471429</v>
+        <v>1479.530414586155</v>
       </c>
       <c r="D2" t="n">
-        <v>1215.247820471429</v>
+        <v>1479.530414586155</v>
       </c>
       <c r="E2" t="n">
-        <v>1215.247820471429</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
         <v>837.3843300102556</v>
@@ -4330,16 +4330,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.31341879663</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="X2" t="n">
-        <v>1601.84766053555</v>
+        <v>1479.530414586155</v>
       </c>
       <c r="Y2" t="n">
-        <v>1601.84766053555</v>
+        <v>1479.530414586155</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4412,22 +4412,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495378</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2102.578639884741</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2349.761373717038</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131.4655134886758</v>
+        <v>1758.982323005929</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800311</v>
+        <v>1590.046140078022</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>1439.929500665686</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>1292.016407083293</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>1145.126459585383</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2423.304826940072</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>2423.304826940072</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.349301773071</v>
+        <v>2423.304826940072</v>
       </c>
       <c r="V4" t="n">
-        <v>869.6648135671838</v>
+        <v>2168.620338734186</v>
       </c>
       <c r="W4" t="n">
-        <v>580.2476435302233</v>
+        <v>2168.620338734186</v>
       </c>
       <c r="X4" t="n">
-        <v>352.2580926322059</v>
+        <v>1940.630787836168</v>
       </c>
       <c r="Y4" t="n">
-        <v>131.4655134886758</v>
+        <v>1940.630787836168</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1076.257000807301</v>
+        <v>1532.019095624402</v>
       </c>
       <c r="C5" t="n">
-        <v>707.2944838668893</v>
+        <v>1163.05657868399</v>
       </c>
       <c r="D5" t="n">
-        <v>707.2944838668893</v>
+        <v>1163.05657868399</v>
       </c>
       <c r="E5" t="n">
-        <v>707.2944838668893</v>
+        <v>1163.05657868399</v>
       </c>
       <c r="F5" t="n">
-        <v>296.3085790772818</v>
+        <v>752.0706738943825</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4567,13 +4567,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847234</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W5" t="n">
-        <v>1852.996172847234</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="X5" t="n">
-        <v>1852.996172847234</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="Y5" t="n">
-        <v>1462.856840871423</v>
+        <v>1918.618935688523</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>2102.578639884742</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4725,25 +4725,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4755,16 +4755,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1524.648496150203</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1235.53015865404</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1235.53015865404</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1235.53015865404</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
         <v>1235.53015865404</v>
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2008.078555102614</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.939223126803</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,13 +4886,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5023,22 +5023,22 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111712</v>
@@ -5047,19 +5047,19 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852254</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380886</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>572.9069687101817</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>422.7903292978459</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E13" t="n">
-        <v>274.8772357154528</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F13" t="n">
-        <v>127.9872882175424</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G13" t="n">
-        <v>127.9872882175424</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797186</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5293,10 +5293,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,10 +5314,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2390.881471216014</v>
+        <v>2310.060639587498</v>
       </c>
       <c r="T16" t="n">
-        <v>2171.280006238955</v>
+        <v>2090.45917461044</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1801.383947954638</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1546.699459748751</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1257.28228971179</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>1029.292738813773</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>634.4644740681601</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>465.5282911402533</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>465.5282911402533</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578601</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2317.673418815656</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2098.071953838597</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1808.996727182795</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1554.312238976908</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1264.895068939947</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1036.90551804193</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>816.1129388983999</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5749,31 +5749,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958734</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C22" t="n">
-        <v>802.9288273958734</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>652.8121879835377</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>504.8990944011446</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>358.0091469032342</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261132</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="23">
@@ -5986,19 +5986,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6007,10 +6007,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>577.8620388433919</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6220,10 +6220,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6241,13 +6241,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>559.7594328861248</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>390.823249958218</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>240.7066105458822</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2242.968377633621</v>
+        <v>2272.857469997003</v>
       </c>
       <c r="T28" t="n">
-        <v>2023.366912656562</v>
+        <v>2272.857469997003</v>
       </c>
       <c r="U28" t="n">
-        <v>1734.29168600076</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V28" t="n">
-        <v>1479.607197794873</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W28" t="n">
-        <v>1190.190027757912</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>962.2004768598947</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>741.4078977163646</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D31" t="n">
-        <v>377.6556127449245</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E31" t="n">
-        <v>377.6556127449245</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F31" t="n">
-        <v>377.6556127449245</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>210.4595134598044</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,25 +6919,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>636.6680198981028</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C37" t="n">
-        <v>467.7318369701959</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D37" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,37 +7189,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7241,16 +7241,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7311,34 +7311,34 @@
         <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,10 +7356,10 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T40" t="n">
         <v>2117.354959541324</v>
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7554,13 +7554,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
         <v>93.81666304797187</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>98.2444844197689</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8303,22 +8303,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>98.24448441976784</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10840,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>106.465793928349</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23703,7 +23703,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>125.5054897610404</v>
+        <v>45.49286644881016</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>53.02951788468627</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>15.00954930701789</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>125.5341284403486</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>63.36835372228742</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>45.44677382459273</v>
+        <v>8.661728554219422</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.81829093850965</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>147.3599015160451</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>55.2110282563296</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>63.36835372228749</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>895790.5312041669</v>
+        <v>895790.5312041671</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>895790.5312041669</v>
+        <v>895790.5312041671</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>895790.5312041669</v>
+        <v>895790.5312041668</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117843</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
         <v>524645.2897985041</v>
@@ -26328,34 +26328,34 @@
         <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="H2" t="n">
         <v>524645.2897985037</v>
       </c>
       <c r="I2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="J2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="K2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="K2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="L2" t="n">
-        <v>524645.2897985039</v>
-      </c>
       <c r="M2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309559</v>
+        <v>87914.29116309554</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
@@ -26453,7 +26453,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744309</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-809534.5425809633</v>
+        <v>-809534.5425809636</v>
       </c>
       <c r="C6" t="n">
-        <v>305217.2409949565</v>
+        <v>305217.2409949563</v>
       </c>
       <c r="D6" t="n">
-        <v>145201.7782469573</v>
+        <v>145201.7782469576</v>
       </c>
       <c r="E6" t="n">
-        <v>89035.66252114068</v>
+        <v>89348.30385006197</v>
       </c>
       <c r="F6" t="n">
-        <v>414448.1243284955</v>
+        <v>414760.7656574167</v>
       </c>
       <c r="G6" t="n">
-        <v>414448.1243284955</v>
+        <v>414760.765657417</v>
       </c>
       <c r="H6" t="n">
-        <v>414448.1243284954</v>
+        <v>414760.7656574165</v>
       </c>
       <c r="I6" t="n">
-        <v>414448.1243284956</v>
+        <v>414760.7656574167</v>
       </c>
       <c r="J6" t="n">
-        <v>246842.9465185131</v>
+        <v>247155.5878474344</v>
       </c>
       <c r="K6" t="n">
-        <v>414448.1243284955</v>
+        <v>414760.7656574168</v>
       </c>
       <c r="L6" t="n">
-        <v>366154.1543203047</v>
+        <v>366466.7956492261</v>
       </c>
       <c r="M6" t="n">
-        <v>329393.0963929837</v>
+        <v>329705.7377219051</v>
       </c>
       <c r="N6" t="n">
-        <v>414448.1243284955</v>
+        <v>414760.7656574168</v>
       </c>
       <c r="O6" t="n">
-        <v>414448.1243284954</v>
+        <v>414760.7656574168</v>
       </c>
       <c r="P6" t="n">
-        <v>414448.1243284955</v>
+        <v>414760.765657417</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,10 +27387,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>153.0817920838327</v>
       </c>
       <c r="F2" t="n">
-        <v>32.79119018515007</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>87.83028144716182</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27587,25 +27587,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>57.01830391625529</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>234.6464408612386</v>
+        <v>84.46051955471432</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27827,19 +27827,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>110.0690483121605</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,10 +27861,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>289.2070795747044</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>306.4732379112248</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911111</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28061,7 +28061,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>31.98681829672469</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33423,7 +33423,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33669,7 +33669,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460027</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>214.7252067506235</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>577.9642335061964</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>347.9240135433002</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36849,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -37071,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37317,7 +37317,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37560,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683797</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
